--- a/Completed Projects/UEP 17th Floor/Variation/02- variation order for Control logic for WCPU.xlsx
+++ b/Completed Projects/UEP 17th Floor/Variation/02- variation order for Control logic for WCPU.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C1161D-1FEE-43BA-AEFA-C18689810CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4504E2AA-502E-44F6-B3DF-56E5BEE515DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,13 +63,13 @@
 (Approved Rate Analysis attached)</t>
   </si>
   <si>
-    <t>Variation Order No 2</t>
-  </si>
-  <si>
     <t>Control Logic with Pressure Sensor for WCPU - UEP 17th Floor DMC Karachi</t>
   </si>
   <si>
     <t>Grand Total Amount Rs.</t>
+  </si>
+  <si>
+    <t>BILL</t>
   </si>
 </sst>
 </file>
@@ -267,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -324,56 +324,53 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -894,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A11:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,67 +910,65 @@
   </cols>
   <sheetData>
     <row r="11" spans="1:6" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="8">
-        <v>45421</v>
+        <v>45442</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="39"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="A14" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:12" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
@@ -983,66 +978,68 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="5" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="32">
+      <c r="A24" s="28">
         <v>1</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="28">
         <v>3</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="30">
         <v>267750</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="31">
         <f>E24*D24</f>
         <v>803250</v>
       </c>
       <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:12" s="17" customFormat="1" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="29">
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="25">
         <f>SUM(F24:F24)</f>
         <v>803250</v>
       </c>
@@ -1052,14 +1049,14 @@
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" s="17" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="27">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="24">
         <f>F25*13%</f>
         <v>104422.5</v>
       </c>
@@ -1069,14 +1066,14 @@
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" s="17" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="27">
+      <c r="A27" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="24">
         <f>F26+F25</f>
         <v>907672.5</v>
       </c>
